--- a/Excel File/12_29_2016_Cleveland.xlsx
+++ b/Excel File/12_29_2016_Cleveland.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jxbaby/Desktop/DV Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhixi\Documents\GitHub\17S_DataVisFinal\Excel File\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4040" yWindow="2360" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="4043" yWindow="2363" windowWidth="25598" windowHeight="14558" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -39,18 +39,6 @@
   </si>
   <si>
     <t>Pos</t>
-  </si>
-  <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>FIC</t>
-  </si>
-  <si>
-    <t>Off</t>
-  </si>
-  <si>
-    <t>Def</t>
   </si>
   <si>
     <t>Reb</t>
@@ -158,8 +146,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -177,15 +165,6 @@
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Helvetica"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -217,29 +196,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="46" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -508,267 +485,207 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8203125" defaultRowHeight="15" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:15" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4">
-        <v>1.2430555555555556</v>
+      <c r="E2" s="2">
+        <v>3</v>
       </c>
       <c r="F2" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K2" s="2">
-        <v>3</v>
-      </c>
-      <c r="L2" s="2">
-        <v>4</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2">
-        <v>4</v>
-      </c>
-      <c r="O2" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>99</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>18</v>
+      <c r="B3" t="s">
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1.4263888888888889</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
       </c>
       <c r="F3" s="2">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>3</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>42</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+      <c r="B4" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="4">
-        <v>1.2125000000000001</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
       </c>
       <c r="F4" s="2">
         <v>4</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4" s="2">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <v>3</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2</v>
-      </c>
-      <c r="O4" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>90</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
+      <c r="B5" t="s">
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.62430555555555556</v>
+        <v>6</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
       </c>
       <c r="F5" s="2">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="G5" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H5" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I5" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="2">
-        <v>4</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2">
-        <v>1</v>
-      </c>
-      <c r="O5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
+      <c r="B6" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4">
-        <v>1.3979166666666665</v>
+        <v>20</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3</v>
       </c>
       <c r="F6" s="2">
-        <v>26.4</v>
+        <v>9</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -777,280 +694,208 @@
         <v>2</v>
       </c>
       <c r="I6" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2">
-        <v>3</v>
-      </c>
-      <c r="O6" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>25</v>
+      <c r="B7" t="s">
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.49305555555555558</v>
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3</v>
       </c>
       <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
         <v>6</v>
       </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2</v>
-      </c>
-      <c r="I7" s="2">
-        <v>3</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>30</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
+      <c r="B8" t="s">
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.64930555555555558</v>
+        <v>15</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
       </c>
       <c r="F8" s="2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="G8" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>4</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" s="2">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0</v>
-      </c>
-      <c r="O8" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
+      <c r="B9" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0.7104166666666667</v>
+        <v>6</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7</v>
       </c>
       <c r="F9" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I9" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>2</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2">
-        <v>0</v>
-      </c>
-      <c r="O9" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>41</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
+      <c r="B10" t="s">
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0.53611111111111109</v>
+        <v>17</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>3.8</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2">
-        <v>0</v>
-      </c>
-      <c r="O10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>36</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>30</v>
+      <c r="B11" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="4">
-        <v>1.3041666666666667</v>
+        <v>20</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>7.8</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2">
-        <v>4</v>
-      </c>
-      <c r="L11" s="2">
-        <v>2</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="N11" s="2">
-        <v>1</v>
-      </c>
-      <c r="O11" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>44</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>31</v>
+      <c r="B12" t="s">
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.40277777777777773</v>
+        <v>17</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
       </c>
       <c r="F12" s="2">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1065,82 +910,54 @@
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
-      </c>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2">
+        <v>6</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2">
-        <v>6</v>
-      </c>
+      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2">
-        <v>240</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2">
-        <v>106.1</v>
+        <v>26</v>
       </c>
       <c r="G14" s="2">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="H14" s="2">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I14" s="2">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="J14" s="2">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K14" s="2">
-        <v>23</v>
-      </c>
-      <c r="L14" s="2">
-        <v>15</v>
-      </c>
-      <c r="M14" s="2">
-        <v>4</v>
-      </c>
-      <c r="N14" s="2">
-        <v>11</v>
-      </c>
-      <c r="O14" s="2">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1152,12 +969,8 @@
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,134 +1004,98 @@
       <c r="K17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A18" s="2">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="4">
-        <v>1.7333333333333334</v>
+        <v>20</v>
+      </c>
+      <c r="E18" s="2">
+        <v>5</v>
       </c>
       <c r="F18" s="2">
-        <v>31.9</v>
+        <v>12</v>
       </c>
       <c r="G18" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
         <v>3</v>
       </c>
       <c r="I18" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>3</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>4</v>
-      </c>
-      <c r="O18" s="2">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>23</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>34</v>
+      <c r="B19" t="s">
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="4">
-        <v>1.8222222222222222</v>
+        <v>15</v>
+      </c>
+      <c r="E19" s="2">
+        <v>8</v>
       </c>
       <c r="F19" s="2">
-        <v>19.399999999999999</v>
+        <v>11</v>
       </c>
       <c r="G19" s="2">
         <v>2</v>
       </c>
       <c r="H19" s="2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I19" s="2">
+        <v>3</v>
+      </c>
+      <c r="J19" s="2">
         <v>8</v>
       </c>
-      <c r="J19" s="2">
-        <v>11</v>
-      </c>
       <c r="K19" s="2">
-        <v>2</v>
-      </c>
-      <c r="L19" s="2">
-        <v>1</v>
-      </c>
-      <c r="M19" s="2">
-        <v>3</v>
-      </c>
-      <c r="N19" s="2">
-        <v>8</v>
-      </c>
-      <c r="O19" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>14</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>35</v>
+      <c r="B20" t="s">
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.83680555555555547</v>
+        <v>13</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
       </c>
       <c r="F20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1327,367 +1104,267 @@
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>3</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>0</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>36</v>
+      <c r="B21" t="s">
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="4">
-        <v>1.4361111111111111</v>
+        <v>6</v>
+      </c>
+      <c r="E21" s="2">
+        <v>15</v>
       </c>
       <c r="F21" s="2">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="G21" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" s="2">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I21" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K21" s="2">
-        <v>4</v>
-      </c>
-      <c r="L21" s="2">
-        <v>2</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2">
-        <v>4</v>
-      </c>
-      <c r="O21" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>13</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>37</v>
+      <c r="B22" t="s">
+        <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="4">
-        <v>1.3520833333333335</v>
+        <v>17</v>
+      </c>
+      <c r="E22" s="2">
+        <v>9</v>
       </c>
       <c r="F22" s="2">
-        <v>10.5</v>
+        <v>1</v>
       </c>
       <c r="G22" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H22" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="J22" s="2">
         <v>1</v>
       </c>
       <c r="K22" s="2">
-        <v>1</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2">
-        <v>1</v>
-      </c>
-      <c r="O22" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>3</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>38</v>
+      <c r="B23" t="s">
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.1361111111111111</v>
+        <v>13</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
       <c r="G23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23" s="2">
-        <v>1</v>
-      </c>
-      <c r="L23" s="2">
-        <v>0</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2">
-        <v>1</v>
-      </c>
-      <c r="O23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>8</v>
       </c>
-      <c r="B24" s="3" t="s">
-        <v>39</v>
+      <c r="B24" t="s">
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.6430555555555556</v>
+        <v>17</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3</v>
       </c>
       <c r="F24" s="2">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>40</v>
+      <c r="B25" t="s">
+        <v>36</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0.80763888888888891</v>
+        <v>15</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3</v>
       </c>
       <c r="F25" s="2">
-        <v>8.4</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="2">
-        <v>2</v>
-      </c>
-      <c r="L25" s="2">
-        <v>0</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2">
-        <v>0</v>
-      </c>
-      <c r="O25" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>4</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>41</v>
+      <c r="B26" t="s">
+        <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="4">
-        <v>1.2326388888888888</v>
+        <v>13</v>
+      </c>
+      <c r="E26" s="2">
+        <v>2</v>
       </c>
       <c r="F26" s="2">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="G26" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2">
-        <v>3</v>
-      </c>
-      <c r="L26" s="2">
-        <v>1</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2">
-        <v>0</v>
-      </c>
-      <c r="O26" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2">
+        <v>11</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2">
-        <v>11</v>
-      </c>
+      <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
-        <v>240</v>
+        <v>57</v>
       </c>
       <c r="F28" s="2">
-        <v>130.1</v>
+        <v>29</v>
       </c>
       <c r="G28" s="2">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H28" s="2">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="I28" s="2">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="J28" s="2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="K28" s="2">
-        <v>16</v>
-      </c>
-      <c r="L28" s="2">
-        <v>7</v>
-      </c>
-      <c r="M28" s="2">
-        <v>3</v>
-      </c>
-      <c r="N28" s="2">
-        <v>18</v>
-      </c>
-      <c r="O28" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1699,35 +1376,9 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B18" r:id="rId12"/>
-    <hyperlink ref="B19" r:id="rId13"/>
-    <hyperlink ref="B20" r:id="rId14"/>
-    <hyperlink ref="B21" r:id="rId15"/>
-    <hyperlink ref="B22" r:id="rId16"/>
-    <hyperlink ref="B23" r:id="rId17"/>
-    <hyperlink ref="B24" r:id="rId18"/>
-    <hyperlink ref="B25" r:id="rId19"/>
-    <hyperlink ref="B26" r:id="rId20"/>
-  </hyperlinks>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>